--- a/src/main/insert personenbezogene Daten/7 Gesellschaft.xlsx
+++ b/src/main/insert personenbezogene Daten/7 Gesellschaft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\insert personenbezogene Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0FE995-19DE-4072-B671-A5CED60E1A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9167F0E6-9A3F-44A7-80F1-A48DAD98FFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34710" yWindow="2025" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,10 @@
     <t>Gesellschaft</t>
   </si>
   <si>
-    <t>Bundesdruckerei GmbH</t>
-  </si>
-  <si>
-    <t>BDr GmbH</t>
+    <t>Beispielfirma GmbH</t>
+  </si>
+  <si>
+    <t>Bf GmbH</t>
   </si>
 </sst>
 </file>
